--- a/data/trans_dic/P22$notiene-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Edad-trans_dic.xlsx
@@ -741,27 +741,27 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01358624600092996</v>
+        <v>0.01366134151994678</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.0229259689438832</v>
+        <v>0.02298313532196238</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01034714043934797</v>
+        <v>0.01144621158258034</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.005534011257004347</v>
+        <v>0.00552817374150734</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.006999214944091763</v>
+        <v>0.007532100130462417</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.01300616245155816</v>
+        <v>0.01204643694874246</v>
       </c>
     </row>
     <row r="7">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001785129826167379</v>
+        <v>0.001794779696678678</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr"/>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0009190209348033724</v>
+        <v>0.0009188522395193626</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001068194345889885</v>
+        <v>0.00130859762765171</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -860,36 +860,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007095416926152007</v>
+        <v>0.00955185135111365</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01192179199438621</v>
+        <v>0.01252449102563039</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01786025536018961</v>
+        <v>0.01808902278448141</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.007900208543169673</v>
+        <v>0.01188109843866767</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.009095684527162896</v>
+        <v>0.007581981312784916</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01535343686884345</v>
+        <v>0.01203619359986955</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.003827564367208096</v>
+        <v>0.003843918023714032</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.007672631161517316</v>
+        <v>0.006694788052482773</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01074274262177168</v>
+        <v>0.009924687039666777</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.007026341233863377</v>
+        <v>0.00675817031614956</v>
       </c>
     </row>
     <row r="10">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01559025171568583</v>
+        <v>0.01828522022495986</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.009185948866769272</v>
+        <v>0.009178405001788797</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.007238273007717603</v>
+        <v>0.006262846915792725</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.008676437642827885</v>
+        <v>0.007666189667602435</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.004583574403524746</v>
+        <v>0.00460118307109027</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.003601656327201028</v>
+        <v>0.003104601795462926</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.0005984696114956829</v>
+        <v>0.0005990272601880033</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0005308531152028161</v>
+        <v>0.0005325788179913043</v>
       </c>
     </row>
     <row r="15">
@@ -1094,30 +1094,30 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02034005524456317</v>
+        <v>0.018674620776051</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01411898165528556</v>
+        <v>0.01287182044197682</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.009710687360351177</v>
+        <v>0.008204590188350415</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.007558679877556282</v>
+        <v>0.007246062107674489</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.009130370692377309</v>
+        <v>0.008542641880018433</v>
       </c>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="n">
-        <v>0.006814091565260721</v>
+        <v>0.00683429659454948</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.005839132583775732</v>
+        <v>0.005973525436049256</v>
       </c>
     </row>
     <row r="16">
@@ -1191,7 +1191,7 @@
       <c r="L17" s="5" t="inlineStr"/>
       <c r="M17" s="5" t="inlineStr"/>
       <c r="N17" s="5" t="n">
-        <v>0.0005805061568423827</v>
+        <v>0.0005795817404915586</v>
       </c>
     </row>
     <row r="18">
@@ -1205,19 +1205,19 @@
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.007388184841946028</v>
+        <v>0.007419212652259155</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.007391041810160068</v>
+        <v>0.00699121875658235</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="inlineStr"/>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="n">
-        <v>0.005353597308474377</v>
+        <v>0.005125141165519087</v>
       </c>
     </row>
     <row r="19">
@@ -1311,25 +1311,25 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01457044190752894</v>
+        <v>0.01500831269076099</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0135892569089879</v>
+        <v>0.01305071088335156</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.01434811412632774</v>
+        <v>0.01556757690307632</v>
       </c>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="n">
-        <v>0.006458475398831708</v>
+        <v>0.007376800039691024</v>
       </c>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.008790009378173799</v>
+        <v>0.007307831618138832</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.006697940670675264</v>
+        <v>0.008051646808036031</v>
       </c>
     </row>
     <row r="22">
@@ -1365,7 +1365,7 @@
         <v>0.003035344729071858</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.002607348216882508</v>
+        <v>0.002607348216882507</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0</v>
@@ -1422,18 +1422,18 @@
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.01688542438953515</v>
+        <v>0.01831282387158228</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.009127851282937003</v>
+        <v>0.009139218694931998</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="n">
-        <v>0.009304404300755827</v>
+        <v>0.01054599502850419</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.005335782635499219</v>
+        <v>0.005446541360940676</v>
       </c>
     </row>
     <row r="25">
@@ -1492,16 +1492,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0003529966623905962</v>
+        <v>0.0003519520413960138</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0006948723279783371</v>
+        <v>0.0007210143221238718</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0003284461166997379</v>
+        <v>0.000325695169496238</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
@@ -1510,22 +1510,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.000239454274910001</v>
+        <v>0.0002404616721481113</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0008363908952351344</v>
+        <v>0.0007610016442306122</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0001751618645470115</v>
+        <v>0.0001796426628966159</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0006992570683288394</v>
+        <v>0.0006742385498783047</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0009112473460997364</v>
+        <v>0.000813232716130263</v>
       </c>
     </row>
     <row r="27">
@@ -1536,40 +1536,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.002921677187784288</v>
+        <v>0.002925602997997444</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.004587589812335854</v>
+        <v>0.004960928970932939</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.003251560035397403</v>
+        <v>0.003668976090901624</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.001684012584879153</v>
+        <v>0.001682962210848899</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.002628525092160147</v>
+        <v>0.002710243421809143</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.00342592607366459</v>
+        <v>0.00334646111117109</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.001657895224607754</v>
+        <v>0.001738117953636878</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.002920396423864796</v>
+        <v>0.0028278894863282</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.002892399386484424</v>
+        <v>0.002894287385223187</v>
       </c>
     </row>
     <row r="28">
@@ -1876,27 +1876,27 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>6157</v>
+        <v>6191</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>9349</v>
+        <v>9372</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4837</v>
+        <v>5351</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>5316</v>
+        <v>5311</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6183</v>
+        <v>6654</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>10019</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="8">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
         <v>1192</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1231</v>
+        <v>1508</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2039,36 +2039,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5201</v>
+        <v>7001</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8191</v>
+        <v>8605</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10546</v>
+        <v>10681</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>4821</v>
+        <v>7250</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5109</v>
+        <v>4259</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7677</v>
+        <v>6018</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5200</v>
+        <v>5222</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>9954</v>
+        <v>8685</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12378</v>
+        <v>11435</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6864</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="12">
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9957</v>
+        <v>11678</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>6138</v>
+        <v>6133</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4503</v>
+        <v>3896</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11526</v>
+        <v>10184</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>6094</v>
+        <v>6117</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>4477</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="16">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19">
@@ -2361,30 +2361,30 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10536</v>
+        <v>9674</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>9122</v>
+        <v>8316</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6803</v>
+        <v>5748</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>5570</v>
+        <v>5340</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9427</v>
+        <v>8820</v>
       </c>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="n">
-        <v>8818</v>
+        <v>8845</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>8394</v>
+        <v>8587</v>
       </c>
     </row>
     <row r="20">
@@ -2502,7 +2502,7 @@
       <c r="L22" s="6" t="inlineStr"/>
       <c r="M22" s="6" t="inlineStr"/>
       <c r="N22" s="6" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23">
@@ -2516,19 +2516,19 @@
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>4502</v>
+        <v>4521</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>4495</v>
+        <v>4252</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="n">
-        <v>6518</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="24">
@@ -2666,25 +2666,25 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5931</v>
+        <v>6110</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4660</v>
+        <v>4476</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>5396</v>
+        <v>5854</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>4104</v>
+        <v>4688</v>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>6244</v>
+        <v>5191</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>5668</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="28">
@@ -2821,18 +2821,18 @@
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>6736</v>
+        <v>7305</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>4241</v>
+        <v>4246</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="inlineStr"/>
       <c r="M31" s="6" t="n">
-        <v>6103</v>
+        <v>6917</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>4134</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="32">
@@ -2935,16 +2935,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2355</v>
+        <v>2444</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3123</v>
+        <v>2841</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>4845</v>
+        <v>4671</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6621</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="35">
@@ -2979,40 +2979,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10009</v>
+        <v>10023</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>15549</v>
+        <v>16815</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11487</v>
+        <v>12962</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>9302</v>
+        <v>9591</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>12791</v>
+        <v>12494</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>11579</v>
+        <v>12139</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>20233</v>
+        <v>19592</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>21017</v>
+        <v>21031</v>
       </c>
     </row>
     <row r="36">
